--- a/заказы/статистика филиалы/2024/03,24/07,03,24 ПОКОМ КИ филиалы/дв 07,03,24 лгрсч пок ки.xlsx
+++ b/заказы/статистика филиалы/2024/03,24/07,03,24 ПОКОМ КИ филиалы/дв 07,03,24 лгрсч пок ки.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\07,03,24 ПОКОМ КИ филиалы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\03,24\07,03,24 ПОКОМ КИ филиалы\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070172E-8250-4D36-AE8E-7F2C96BD64D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5531D881-D5BD-4766-9B59-7098CC056840}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,8 +972,8 @@
   <dimension ref="A1:AX500"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF20" sqref="AF20"/>
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
